--- a/myapp/files/80_distances/distances_aggregate1_pValue.xlsx
+++ b/myapp/files/80_distances/distances_aggregate1_pValue.xlsx
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.600863953488372</v>
+        <v>0.589625581395349</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>0.57471976744186</v>
+        <v>0.724744186046512</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.57586511627907</v>
+        <v>0.563887209302326</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0.564275581395349</v>
+        <v>0.723888372093023</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.605294186046512</v>
+        <v>0.599758139534884</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.61028488372093</v>
+        <v>0.737406976744186</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0.66956511627907</v>
+        <v>0.664027906976744</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>0.686370930232558</v>
+        <v>0.736262790697674</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.621567441860465</v>
+        <v>0.616030232558139</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>0.611012790697674</v>
+        <v>0.736467441860465</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.584523255813953</v>
+        <v>0.572820930232558</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.571890697674419</v>
+        <v>0.722754651162791</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0411779069767442</v>
+        <v>0.0411686046511628</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0184302325581395</v>
+        <v>0.0183860465116279</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.082993023255814</v>
+        <v>0.083003488372093</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0709209302325581</v>
+        <v>0.0709418604651163</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220429069767442</v>
+        <v>0.220397674418605</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214974418604651</v>
+        <v>0.214972093023256</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.294237209302326</v>
+        <v>0.294274418604651</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327158139534884</v>
+        <v>0.327139534883721</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197662790697674</v>
+        <v>0.197654651162791</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181917441860465</v>
+        <v>0.181952325581395</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate1_pValue.xlsx
+++ b/myapp/files/80_distances/distances_aggregate1_pValue.xlsx
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.572820930232558</v>
+        <v>0.572826744186047</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.722754651162791</v>
+        <v>0.722772093023256</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0411686046511628</v>
+        <v>0.0411674418604651</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0183860465116279</v>
+        <v>0.0184151162790698</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.083003488372093</v>
+        <v>0.0830244186046512</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0709418604651163</v>
+        <v>0.0709686046511628</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220397674418605</v>
+        <v>0.2204</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214972093023256</v>
+        <v>0.214974418604651</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.294274418604651</v>
+        <v>0.294259302325581</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327139534883721</v>
+        <v>0.327143023255814</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197654651162791</v>
+        <v>0.19765</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181952325581395</v>
+        <v>0.181939534883721</v>
       </c>
     </row>
   </sheetData>
